--- a/AI_Readiness_Assessment_Framework.xlsx
+++ b/AI_Readiness_Assessment_Framework.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\ai-readiness-framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43961BBB-E87F-4146-9F52-8EEAC1A31425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C615C0-7DF4-4D4D-9695-754FF94D41EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{1E8821A1-E8BF-4E43-8D4F-04509D152178}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{1E8821A1-E8BF-4E43-8D4F-04509D152178}"/>
   </bookViews>
   <sheets>
     <sheet name="Criteria" sheetId="1" r:id="rId1"/>
@@ -281,9 +281,6 @@
   </si>
   <si>
     <t>AI Readiness Assessment Framework</t>
-  </si>
-  <si>
-    <t>DEISIO Rating Definitions</t>
   </si>
   <si>
     <t>DEVELOPING</t>
@@ -453,6 +450,9 @@
   </si>
   <si>
     <t>The organisation's technology landscape is mature. They are primarily using AWS for technology projects and Azure for internal IT. This is all supported with development pipelines and Agile product methodologies.</t>
+  </si>
+  <si>
+    <t>DEISO Rating Definitions</t>
   </si>
 </sst>
 </file>
@@ -563,13 +563,22 @@
   </cellStyles>
   <dxfs count="13">
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -585,15 +594,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -622,10 +622,10 @@
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{7D3DC402-4E2E-4EC8-8F16-98AA22407F89}" name="ID" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{5A40E529-61D2-444E-B04A-289D3B673F94}" name="Domain" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{013B5D12-0C43-4AA8-99F5-2D08FD6E0D3E}" name="Control" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{EEFAD5D9-0B03-4596-ACFF-0BFB85922B50}" name="Explanation" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{A355A28E-6330-4EFB-AA42-072AA691EE3D}" name="Guidance" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{5A40E529-61D2-444E-B04A-289D3B673F94}" name="Domain" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{013B5D12-0C43-4AA8-99F5-2D08FD6E0D3E}" name="Control" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{EEFAD5D9-0B03-4596-ACFF-0BFB85922B50}" name="Explanation" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{A355A28E-6330-4EFB-AA42-072AA691EE3D}" name="Guidance" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -638,22 +638,22 @@
     <sortCondition ref="A1:A24"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{FF55E3FD-7AAE-42C9-9BF6-79F489D3CD18}" name="ID" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{B9086BE5-480B-401A-99C4-67961F33F603}" name="Domain" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{4DE2F4FD-559C-4BE5-8849-5C99ADC7AEB7}" name="Control" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{2FD50859-B23B-4DF2-9B5E-047C89E2B531}" name="EXAMPLE DEISO Rating" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{5AEED158-DBA1-4CFF-BEF5-78A9A08CC083}" name="EXAMPLE Notes" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{FF55E3FD-7AAE-42C9-9BF6-79F489D3CD18}" name="ID" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{B9086BE5-480B-401A-99C4-67961F33F603}" name="Domain" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{4DE2F4FD-559C-4BE5-8849-5C99ADC7AEB7}" name="Control" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{2FD50859-B23B-4DF2-9B5E-047C89E2B531}" name="EXAMPLE DEISO Rating" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{5AEED158-DBA1-4CFF-BEF5-78A9A08CC083}" name="EXAMPLE Notes" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1B2999C8-FB5B-427C-A0E2-C516A080DE41}" name="Table3" displayName="Table3" ref="G1:H6" totalsRowShown="0" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1B2999C8-FB5B-427C-A0E2-C516A080DE41}" name="Table3" displayName="Table3" ref="G1:H6" totalsRowShown="0" dataDxfId="2">
   <autoFilter ref="G1:H6" xr:uid="{1B2999C8-FB5B-427C-A0E2-C516A080DE41}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C1BA341F-F069-4EE4-B1BE-FF91DFE56E18}" name="Domain" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{6D29528E-513E-4CDD-8525-EF5904D70D35}" name="Average DEISO Rating" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{C1BA341F-F069-4EE4-B1BE-FF91DFE56E18}" name="Domain" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{6D29528E-513E-4CDD-8525-EF5904D70D35}" name="Average DEISO Rating" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -958,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFBB9CD-C8BD-4418-A899-C97751502969}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="A5:B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -975,52 +975,52 @@
     </row>
     <row r="2" spans="1:2" ht="259" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A5" s="9" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="5" customFormat="1" ht="86.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="5" customFormat="1" ht="86.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="5" customFormat="1" ht="86.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="5" customFormat="1" ht="86.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="5" customFormat="1" ht="86.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1465,8 +1465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D33D1B-A318-4E8D-9348-E92628F08422}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="A11:I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1492,10 +1492,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>1</v>
@@ -1518,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>3</v>
@@ -1542,7 +1542,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>4</v>
@@ -1566,7 +1566,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>8</v>
@@ -1590,7 +1590,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>12</v>
@@ -1614,7 +1614,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>41</v>
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
@@ -1655,7 +1655,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="58" x14ac:dyDescent="0.35">
@@ -1672,7 +1672,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
@@ -1689,7 +1689,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -1706,7 +1706,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -1723,7 +1723,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
@@ -1740,7 +1740,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
@@ -1757,7 +1757,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
@@ -1774,7 +1774,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
@@ -1791,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
@@ -1808,7 +1808,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="58" x14ac:dyDescent="0.35">
@@ -1825,7 +1825,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
@@ -1842,7 +1842,7 @@
         <v>3</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="58" x14ac:dyDescent="0.35">
@@ -1859,7 +1859,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="58" x14ac:dyDescent="0.35">
@@ -1876,7 +1876,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="58" x14ac:dyDescent="0.35">
@@ -1893,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1910,7 +1910,7 @@
         <v>4</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -1927,7 +1927,7 @@
         <v>4</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/AI_Readiness_Assessment_Framework.xlsx
+++ b/AI_Readiness_Assessment_Framework.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\ai-readiness-framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C615C0-7DF4-4D4D-9695-754FF94D41EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544DF1D5-26F6-400D-8A38-B10BD4FD0DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{1E8821A1-E8BF-4E43-8D4F-04509D152178}"/>
   </bookViews>
@@ -380,9 +380,6 @@
     <t>EXAMPLE DEISO Rating</t>
   </si>
   <si>
-    <t>EXAMPLE Notes</t>
-  </si>
-  <si>
     <t>There is no evidence of an AI ethics policy or previous discussion about the requirements for one.</t>
   </si>
   <si>
@@ -453,6 +450,9 @@
   </si>
   <si>
     <t>DEISO Rating Definitions</t>
+  </si>
+  <si>
+    <t>EXAMPLE Analysis</t>
   </si>
 </sst>
 </file>
@@ -642,7 +642,7 @@
     <tableColumn id="2" xr3:uid="{B9086BE5-480B-401A-99C4-67961F33F603}" name="Domain" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{4DE2F4FD-559C-4BE5-8849-5C99ADC7AEB7}" name="Control" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{2FD50859-B23B-4DF2-9B5E-047C89E2B531}" name="EXAMPLE DEISO Rating" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{5AEED158-DBA1-4CFF-BEF5-78A9A08CC083}" name="EXAMPLE Notes" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{5AEED158-DBA1-4CFF-BEF5-78A9A08CC083}" name="EXAMPLE Analysis" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -980,7 +980,7 @@
     </row>
     <row r="5" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A5" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="5" customFormat="1" ht="86.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1466,7 +1466,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1495,7 +1495,7 @@
         <v>92</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>1</v>
@@ -1518,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>3</v>
@@ -1542,7 +1542,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>4</v>
@@ -1566,7 +1566,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>8</v>
@@ -1590,7 +1590,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>12</v>
@@ -1614,7 +1614,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>41</v>
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
@@ -1655,7 +1655,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="58" x14ac:dyDescent="0.35">
@@ -1672,7 +1672,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
@@ -1689,7 +1689,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -1706,7 +1706,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -1723,7 +1723,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
@@ -1740,7 +1740,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
@@ -1757,7 +1757,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
@@ -1774,7 +1774,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
@@ -1791,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
@@ -1808,7 +1808,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="58" x14ac:dyDescent="0.35">
@@ -1825,7 +1825,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
@@ -1842,7 +1842,7 @@
         <v>3</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="58" x14ac:dyDescent="0.35">
@@ -1859,7 +1859,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="58" x14ac:dyDescent="0.35">
@@ -1876,7 +1876,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="58" x14ac:dyDescent="0.35">
@@ -1893,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1910,7 +1910,7 @@
         <v>4</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -1927,7 +1927,7 @@
         <v>4</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
